--- a/OS Lab Attendance  Summer 2022.xlsx
+++ b/OS Lab Attendance  Summer 2022.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="52">
   <si>
     <t>Section Code : 032206022</t>
   </si>
@@ -284,9 +284,6 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -311,6 +308,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -583,7 +583,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -591,800 +591,967 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="6" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="8.42578125" customWidth="1"/>
+    <col min="17" max="17" width="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-    </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+    </row>
+    <row r="2" spans="1:18" ht="15" customHeight="1">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-    </row>
-    <row r="5" spans="1:14" ht="33.75">
-      <c r="A5" s="3" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+    </row>
+    <row r="5" spans="1:18" ht="33.75">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>44740</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>44741</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <v>44747</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <v>44748</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <v>44755</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="4">
         <v>44761</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="4">
         <v>44762</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="4">
+        <v>44769</v>
+      </c>
+      <c r="N5" s="4">
+        <v>44775</v>
+      </c>
+      <c r="O5" s="4">
+        <v>44776</v>
+      </c>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="R5" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="22.5">
-      <c r="A6" s="6">
+    <row r="6" spans="1:18" ht="22.5">
+      <c r="A6" s="5">
         <v>1</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2">
+      <c r="E6" s="7"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="22.5">
-      <c r="A7" s="6">
+    <row r="7" spans="1:18" ht="22.5">
+      <c r="A7" s="5">
         <v>2</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2">
+      <c r="E7" s="5"/>
+      <c r="F7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="22.5">
-      <c r="A8" s="6">
+    <row r="8" spans="1:18" ht="22.5">
+      <c r="A8" s="5">
         <v>3</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2">
+      <c r="E8" s="5"/>
+      <c r="F8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="45">
-      <c r="A9" s="6">
+    <row r="9" spans="1:18" ht="45">
+      <c r="A9" s="5">
         <v>4</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M9" s="2">
+      <c r="E9" s="5"/>
+      <c r="F9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1">
         <v>10</v>
       </c>
-      <c r="N9" s="2">
+      <c r="R9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="33.75">
-      <c r="A10" s="6">
+    <row r="10" spans="1:18" ht="33.75">
+      <c r="A10" s="5">
         <v>5</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M10" s="2">
+      <c r="E10" s="5"/>
+      <c r="F10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1">
         <v>10</v>
       </c>
-      <c r="N10" s="2">
+      <c r="R10" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="22.5">
-      <c r="A11" s="6">
+    <row r="11" spans="1:18" ht="22.5">
+      <c r="A11" s="5">
         <v>6</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M11" s="2">
+      <c r="E11" s="5"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1">
         <v>10</v>
       </c>
-      <c r="N11" s="2">
+      <c r="R11" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="33.75">
-      <c r="A12" s="6">
+    <row r="12" spans="1:18" ht="33.75">
+      <c r="A12" s="5">
         <v>7</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M12" s="2">
+      <c r="E12" s="5"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1">
         <v>10</v>
       </c>
-      <c r="N12" s="2">
+      <c r="R12" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="22.5">
-      <c r="A13" s="6">
+    <row r="13" spans="1:18" ht="22.5">
+      <c r="A13" s="5">
         <v>8</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M13" s="2">
+      <c r="E13" s="5"/>
+      <c r="F13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1">
         <v>10</v>
       </c>
-      <c r="N13" s="2">
+      <c r="R13" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="33.75">
-      <c r="A14" s="6">
+    <row r="14" spans="1:18" ht="33.75">
+      <c r="A14" s="5">
         <v>9</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2">
+      <c r="E14" s="5"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="22.5">
-      <c r="A15" s="6">
+    <row r="15" spans="1:18" ht="22.5">
+      <c r="A15" s="5">
         <v>10</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2" t="s">
+      <c r="E15" s="5"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-    </row>
-    <row r="16" spans="1:14" ht="22.5">
-      <c r="A16" s="6">
+      <c r="J15" s="1"/>
+      <c r="K15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+    </row>
+    <row r="16" spans="1:18" ht="22.5">
+      <c r="A16" s="5">
         <v>11</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2">
+      <c r="E16" s="5"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="22.5">
-      <c r="A17" s="6">
+    <row r="17" spans="1:18" ht="22.5">
+      <c r="A17" s="5">
         <v>12</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-    </row>
-    <row r="18" spans="1:14" ht="22.5">
-      <c r="A18" s="6">
+      <c r="E17" s="5"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+    </row>
+    <row r="18" spans="1:18" ht="22.5">
+      <c r="A18" s="5">
         <v>13</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M18" s="2">
+      <c r="E18" s="5"/>
+      <c r="F18" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1">
         <v>10</v>
       </c>
-      <c r="N18" s="2">
+      <c r="R18" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="45">
-      <c r="A19" s="6">
+    <row r="19" spans="1:18" ht="45">
+      <c r="A19" s="5">
         <v>14</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M19" s="2">
+      <c r="E19" s="5"/>
+      <c r="F19" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1">
         <v>10</v>
       </c>
-      <c r="N19" s="2">
+      <c r="R19" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="22.5">
-      <c r="A20" s="6">
+    <row r="20" spans="1:18" ht="22.5">
+      <c r="A20" s="5">
         <v>15</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="J20" s="2"/>
-      <c r="K20" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M20" s="2">
+      <c r="E20" s="5"/>
+      <c r="F20" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1">
         <v>10</v>
       </c>
-      <c r="N20" s="2">
+      <c r="R20" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="33.75">
-      <c r="A21" s="6">
+    <row r="21" spans="1:18" ht="33.75">
+      <c r="A21" s="5">
         <v>16</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2">
+      <c r="E21" s="5"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="22.5">
-      <c r="A22" s="6">
+    <row r="22" spans="1:18" ht="22.5">
+      <c r="A22" s="5">
         <v>17</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M22" s="2">
+      <c r="E22" s="7"/>
+      <c r="F22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1">
         <v>10</v>
       </c>
-      <c r="N22" s="2">
+      <c r="R22" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="22.5">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2">
+    <row r="23" spans="1:18" ht="22.5">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1">
         <v>33495</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-    </row>
-    <row r="24" spans="1:14" ht="33.75">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2">
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+    </row>
+    <row r="24" spans="1:18" ht="33.75">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1">
         <v>31295</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K24" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">
